--- a/model/results/mix0_ggpos_h2pos/v_inv_tech.xlsx
+++ b/model/results/mix0_ggpos_h2pos/v_inv_tech.xlsx
@@ -790,7 +790,7 @@
         <v>606923076.9230773</v>
       </c>
       <c r="E3" t="n">
-        <v>185769230.7692309</v>
+        <v>241500000</v>
       </c>
       <c r="F3" t="n">
         <v>185769230.7692309</v>
@@ -1174,7 +1174,7 @@
         <v>2025</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>1770866666.666667</v>
       </c>
       <c r="C6" t="n">
         <v>876666666.6666666</v>
@@ -1183,10 +1183,10 @@
         <v>876666666.6666666</v>
       </c>
       <c r="E6" t="n">
-        <v>84123942.74028312</v>
+        <v>429333333.3333333</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>268333333.3333333</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1305,7 +1305,7 @@
         <v>2026</v>
       </c>
       <c r="B7" t="n">
-        <v>876666666.6666666</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1314,10 +1314,10 @@
         <v>894200000</v>
       </c>
       <c r="E7" t="n">
-        <v>184209390.5930502</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>268333333.3333333</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1439,7 +1439,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1570,16 +1570,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>894200000</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>273700000</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1597,7 +1597,7 @@
         <v>19591836.73469387</v>
       </c>
       <c r="L9" t="n">
-        <v>9795918.36734692</v>
+        <v>9795918.367346937</v>
       </c>
       <c r="M9" t="n">
         <v>15918367.34693877</v>
@@ -1642,10 +1642,10 @@
         <v>24489795.91836734</v>
       </c>
       <c r="AA9" t="n">
-        <v>122448.9795918365</v>
+        <v>122448.9795918367</v>
       </c>
       <c r="AB9" t="n">
-        <v>612244.897959183</v>
+        <v>612244.8979591836</v>
       </c>
       <c r="AC9" t="n">
         <v>14693877.55102041</v>
@@ -1698,7 +1698,7 @@
         <v>2029</v>
       </c>
       <c r="B10" t="n">
-        <v>894200000</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1710,7 +1710,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>273700000</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>273699999.999995</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
